--- a/medicine/Mort/Waka_(sculpture)/Waka_(sculpture).xlsx
+++ b/medicine/Mort/Waka_(sculpture)/Waka_(sculpture).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un waka, également connu sous le nom de waga ou waaka, est un type de statue funéraire commémorative sculptée dans le bois lors d'un décès chez les Konso, une peuplade du sud de l'Éthiopie.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom waka est composé des mots wa- et aka, ce qui signifie « quelque chose des grands-pères ». 
 Waka n'a rien à voir avec le mot Waĝa, qui signifie dieu.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les statues, toujours réalisées debout, sont principalement sculptées dans du bois de genévrier ou d'acacia. Les yeux sont généralement découpés dans une coquille d'œuf d'autruche et les dents réalisées en os d'animaux. Les statues sont enduites d'un amalgame fait d'argile, de sang et de graisse animale qui les protègent de la chaleur et de la pluie et portent parfois des décorations telles que collier d'ivoire ou bracelets.
 </t>
@@ -574,7 +590,9 @@
           <t>Symbolisme funéraire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les waka représentent des hommes décédés, chef de clan (poqalla), notables ou héros (xetallaytta) qui ont tué un ou plusieurs ennemis. Leurs armes décorent leur statue.
 Les représentations jouent un rôle biographique en rappelant leur vie, leurs faits mémorables et la mémoire de leurs ancêtres et du lignage. Elles sont souvent entourées de celles de ses femmes, de ses victimes ou ennemis vaincus qui sont alors émasculés.
@@ -608,7 +626,9 @@
           <t>Typologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Waka d'un héros
 Le waka d'un héros a un xallasha (ornement de forme phallique) sur le front, est décoré d'un collier d'ivoire et de bracelets et porte ses armes.
@@ -644,9 +664,11 @@
           <t>Conservation et préservation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1996, quelque deux cents waka furent récupérés à l'aéroport par les douanes éthiopiennes, ce qui a attitré l'attention sur le fait que les waka étaient très recherchés par les trafiquants d'art africain. Afin de contribuer à leur préservation, un musée, le musée de la culture konso, leur a été consacré, ainsi qu'à la culture konso. Ce musée, financé en grande partie par la France et par le Musée des Arts Premiers du quai Branly à Paris, a été inauguré le 18 décembre 2009 en périphérie de la ville de  Konso[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1996, quelque deux cents waka furent récupérés à l'aéroport par les douanes éthiopiennes, ce qui a attitré l'attention sur le fait que les waka étaient très recherchés par les trafiquants d'art africain. Afin de contribuer à leur préservation, un musée, le musée de la culture konso, leur a été consacré, ainsi qu'à la culture konso. Ce musée, financé en grande partie par la France et par le Musée des Arts Premiers du quai Branly à Paris, a été inauguré le 18 décembre 2009 en périphérie de la ville de  Konso.
 </t>
         </is>
       </c>
